--- a/data/online/facebookSet.xlsx
+++ b/data/online/facebookSet.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/perutweet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgbecerra/Documents/GitHub/analitics/data/online/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="4860" windowWidth="13740" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,18 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>ENRIQUE CORNEJO</t>
-  </si>
-  <si>
-    <t>RENZO REGGIARDO</t>
-  </si>
-  <si>
-    <t>DANIEL URRESTI</t>
-  </si>
-  <si>
-    <t>JORGE MUÑOZ</t>
-  </si>
-  <si>
     <t>talking</t>
   </si>
   <si>
@@ -77,13 +65,25 @@
     <t>likesPage</t>
   </si>
   <si>
-    <t>RICARDO BELMONT</t>
+    <t>Reggiardo</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Urresti</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>setiembre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -125,6 +125,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,353 +409,326 @@
     <col min="10" max="11" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>74627</v>
+        <v>29828</v>
       </c>
       <c r="C2">
-        <v>14840</v>
+        <v>44045</v>
       </c>
       <c r="D2">
-        <v>18598</v>
+        <v>93351</v>
       </c>
       <c r="E2">
-        <v>1691</v>
+        <v>530</v>
       </c>
       <c r="F2">
-        <v>10162</v>
+        <v>49311</v>
       </c>
       <c r="G2">
-        <v>2559</v>
+        <v>32333</v>
       </c>
       <c r="H2">
-        <v>5877</v>
+        <v>11707</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f>SUM(I2:L2)</f>
-        <v>11</v>
+        <v>176</v>
+      </c>
+      <c r="N2">
+        <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>29828</v>
+        <v>115394</v>
       </c>
       <c r="C3">
-        <v>44045</v>
+        <v>33113</v>
       </c>
       <c r="D3">
-        <v>93351</v>
+        <v>321060</v>
       </c>
       <c r="E3">
-        <v>530</v>
+        <v>4281</v>
       </c>
       <c r="F3">
-        <v>49311</v>
+        <v>123770</v>
       </c>
       <c r="G3">
-        <v>32333</v>
+        <v>125206</v>
       </c>
       <c r="H3">
-        <v>11707</v>
+        <v>72084</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>40</v>
-      </c>
-      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f>SUM(I3:L3)</f>
+        <v>75</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>232657</v>
+      </c>
+      <c r="C4">
+        <v>92485</v>
+      </c>
+      <c r="D4">
+        <v>527024</v>
+      </c>
+      <c r="E4">
+        <v>2675</v>
+      </c>
+      <c r="F4">
+        <v>281848</v>
+      </c>
+      <c r="G4">
+        <v>83162</v>
+      </c>
+      <c r="H4">
+        <v>162014</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>135</v>
+      </c>
+      <c r="K4">
+        <v>49</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f>SUM(I4:L4)</f>
+        <v>197</v>
+      </c>
+      <c r="N4">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>100196</v>
+      </c>
+      <c r="C5">
+        <v>217520</v>
+      </c>
+      <c r="D5">
+        <v>299146</v>
+      </c>
+      <c r="E5">
+        <v>1503</v>
+      </c>
+      <c r="F5">
+        <v>192351</v>
+      </c>
+      <c r="G5">
+        <v>26200</v>
+      </c>
+      <c r="H5">
+        <v>80595</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <v>34</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M6" si="0">SUM(I3:L3)</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>115394</v>
-      </c>
-      <c r="C4">
-        <v>33113</v>
-      </c>
-      <c r="D4">
-        <v>321060</v>
-      </c>
-      <c r="E4">
-        <v>4281</v>
-      </c>
-      <c r="F4">
-        <v>123770</v>
-      </c>
-      <c r="G4">
-        <v>125206</v>
-      </c>
-      <c r="H4">
-        <v>72084</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>67</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>232657</v>
-      </c>
-      <c r="C5">
-        <v>92485</v>
-      </c>
-      <c r="D5">
-        <v>527024</v>
-      </c>
-      <c r="E5">
-        <v>2675</v>
-      </c>
-      <c r="F5">
-        <v>281848</v>
-      </c>
-      <c r="G5">
-        <v>83162</v>
-      </c>
-      <c r="H5">
-        <v>162014</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>135</v>
-      </c>
-      <c r="K5">
-        <v>49</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>100196</v>
-      </c>
-      <c r="C6">
-        <v>217520</v>
-      </c>
-      <c r="D6">
-        <v>299146</v>
-      </c>
-      <c r="E6">
-        <v>1503</v>
-      </c>
-      <c r="F6">
-        <v>192351</v>
-      </c>
-      <c r="G6">
-        <v>26200</v>
-      </c>
-      <c r="H6">
-        <v>80595</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>160</v>
-      </c>
-      <c r="K6">
-        <v>34</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
+        <f>SUM(I5:L5)</f>
         <v>199</v>
+      </c>
+      <c r="N5">
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B6">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C6">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F6">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G6">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H6">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J6">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L6">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M6">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H5">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
